--- a/BOM continuitytester.xlsx
+++ b/BOM continuitytester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Continuity Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1253D7D4-C8E3-45BC-AC1B-D2009CD0CD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694D3F4-0CC5-47E0-BFE3-50743ADB8331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="30" windowWidth="24180" windowHeight="15060" xr2:uid="{0E0E3685-749A-4CCE-9113-E58536208290}"/>
+    <workbookView xWindow="2850" yWindow="2400" windowWidth="24180" windowHeight="15060" xr2:uid="{0E0E3685-749A-4CCE-9113-E58536208290}"/>
   </bookViews>
   <sheets>
     <sheet name="continuitytester" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,6 +1232,9 @@
       </c>
       <c r="E7" t="s">
         <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
